--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justiceuk-my.sharepoint.com/personal/adela_iliescu_yjb_gov_uk/Documents/data_science/test/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriana.delgado/Documents/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E87C155-AD5D-A74C-BBE7-111E2B254132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A537FE5-3273-A84B-AF26-541E869F70CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{B751D7D3-2AC8-7B47-8EB0-B5EAD76F31FF}"/>
+    <workbookView xWindow="10760" yWindow="3240" windowWidth="27640" windowHeight="16940" xr2:uid="{B751D7D3-2AC8-7B47-8EB0-B5EAD76F31FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>gg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE93756-2522-E94A-98D5-FD1B99B1FDF8}">
-  <dimension ref="A1"/>
+  <dimension ref="D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriana.delgado/Documents/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A537FE5-3273-A84B-AF26-541E869F70CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F79CB41-C548-3443-905E-ACAA76E44824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10760" yWindow="3240" windowWidth="27640" windowHeight="16940" xr2:uid="{B751D7D3-2AC8-7B47-8EB0-B5EAD76F31FF}"/>
   </bookViews>
@@ -36,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>gg</t>
+  </si>
+  <si>
+    <t>bhfhsrheh</t>
+  </si>
+  <si>
+    <t>whyyyy</t>
   </si>
 </sst>
 </file>
@@ -390,17 +396,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE93756-2522-E94A-98D5-FD1B99B1FDF8}">
-  <dimension ref="D9"/>
+  <dimension ref="D7:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
